--- a/docs/requirements/Master Data Tables - Test Data/kernel-sync_job_def.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/kernel-sync_job_def.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\DB Updated Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{173F2FF4-1DED-4125-BA85-E2F61896E88C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AE284180-6A1A-4B9F-B013-D6C11F043DF9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="63">
   <si>
     <t>ID</t>
   </si>
@@ -64,12 +64,6 @@
     <t>DEL_DTIMES</t>
   </si>
   <si>
-    <t>LCS_J00002</t>
-  </si>
-  <si>
-    <t>Login Credentials Sync</t>
-  </si>
-  <si>
     <t>NULL</t>
   </si>
   <si>
@@ -82,12 +76,6 @@
     <t>System</t>
   </si>
   <si>
-    <t>LER_J00009</t>
-  </si>
-  <si>
-    <t>Last Export Registration</t>
-  </si>
-  <si>
     <t>MDS_J00001</t>
   </si>
   <si>
@@ -130,12 +118,6 @@
     <t>packetSyncStatusJob</t>
   </si>
   <si>
-    <t>RSS_J00004</t>
-  </si>
-  <si>
-    <t>Registration Client Setup Sync</t>
-  </si>
-  <si>
     <t>URS_J00007</t>
   </si>
   <si>
@@ -145,12 +127,6 @@
     <t>userDetailServiceJob</t>
   </si>
   <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>Pre Reg Manual Sync</t>
-  </si>
-  <si>
     <t>DEL_J00013</t>
   </si>
   <si>
@@ -221,6 +197,18 @@
   </si>
   <si>
     <t>SYSTEM</t>
+  </si>
+  <si>
+    <t>UDS_J00017</t>
+  </si>
+  <si>
+    <t>User Salt Sync service</t>
+  </si>
+  <si>
+    <t>userSaltSyncJob</t>
+  </si>
+  <si>
+    <t>synchConfigDataJob</t>
   </si>
 </sst>
 </file>
@@ -704,10 +692,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1065,801 +1055,687 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="O1" sqref="O1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" style="1"/>
+    <col min="9" max="9" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.7265625" style="1"/>
+    <col min="13" max="13" width="10.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="J2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="L2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H2" t="b">
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="N5" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M2" t="b">
+      <c r="D15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M15" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="N2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" t="s">
-        <v>61</v>
-      </c>
-      <c r="M4" t="b">
-        <v>0</v>
-      </c>
-      <c r="N4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" t="s">
-        <v>61</v>
-      </c>
-      <c r="M5" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" t="s">
-        <v>61</v>
-      </c>
-      <c r="M6" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" t="s">
-        <v>61</v>
-      </c>
-      <c r="M7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" t="s">
-        <v>61</v>
-      </c>
-      <c r="M8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K9" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" t="s">
-        <v>61</v>
-      </c>
-      <c r="M9" t="b">
-        <v>0</v>
-      </c>
-      <c r="N9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" t="s">
-        <v>61</v>
-      </c>
-      <c r="M10" t="b">
-        <v>0</v>
-      </c>
-      <c r="N10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" t="s">
-        <v>61</v>
-      </c>
-      <c r="M11" t="b">
-        <v>0</v>
-      </c>
-      <c r="N11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" t="s">
-        <v>61</v>
-      </c>
-      <c r="M12" t="b">
-        <v>0</v>
-      </c>
-      <c r="N12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K13" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" t="s">
-        <v>61</v>
-      </c>
-      <c r="M13" t="b">
-        <v>0</v>
-      </c>
-      <c r="N13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K14" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" t="s">
-        <v>61</v>
-      </c>
-      <c r="M14" t="b">
-        <v>0</v>
-      </c>
-      <c r="N14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K15" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" t="s">
-        <v>61</v>
-      </c>
-      <c r="M15" t="b">
-        <v>0</v>
-      </c>
-      <c r="N15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K16" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" t="s">
-        <v>61</v>
-      </c>
-      <c r="M16" t="b">
-        <v>0</v>
-      </c>
-      <c r="N16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s">
-        <v>62</v>
-      </c>
-      <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K17" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" t="s">
-        <v>61</v>
-      </c>
-      <c r="M17" t="b">
-        <v>0</v>
-      </c>
-      <c r="N17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s">
-        <v>62</v>
-      </c>
-      <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="s">
-        <v>66</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K18" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" t="s">
-        <v>61</v>
-      </c>
-      <c r="M18" t="b">
-        <v>0</v>
-      </c>
-      <c r="N18" t="s">
-        <v>61</v>
+      <c r="N15" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
